--- a/Proyectos/2015/11/P1346 - AECCON, Rigoberto Orozco_OCFCA/Ventas/Estimación.xlsx
+++ b/Proyectos/2015/11/P1346 - AECCON, Rigoberto Orozco_OCFCA/Ventas/Estimación.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="B5" s="3">
         <f>servicios!B1</f>
-        <v>4650.18</v>
+        <v>3440.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B3:B5)</f>
-        <v>4769.6739000000007</v>
+        <v>3559.7939000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D3:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1458,7 +1460,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D2:D100)</f>
-        <v>4650.18</v>
+        <v>3440.3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1497,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1209.8800000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1209.8800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
